--- a/FitnessData/dynamic15/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic15/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>271.48</v>
+        <v>250.27</v>
       </c>
       <c r="B2" t="n">
-        <v>239.2</v>
+        <v>230.96</v>
       </c>
       <c r="C2" t="n">
-        <v>236.84</v>
+        <v>251.87</v>
       </c>
       <c r="D2" t="n">
-        <v>283.49</v>
+        <v>234.02</v>
       </c>
       <c r="E2" t="n">
-        <v>256.95</v>
+        <v>241.54</v>
       </c>
       <c r="F2" t="n">
-        <v>248.14</v>
+        <v>266.13</v>
       </c>
       <c r="G2" t="n">
-        <v>245.13</v>
+        <v>249.5</v>
       </c>
       <c r="H2" t="n">
-        <v>277.53</v>
+        <v>239.15</v>
       </c>
       <c r="I2" t="n">
-        <v>279.86</v>
+        <v>232.99</v>
       </c>
       <c r="J2" t="n">
-        <v>247.5</v>
+        <v>232.17</v>
       </c>
       <c r="K2" t="n">
-        <v>228.44</v>
+        <v>261.1</v>
       </c>
       <c r="L2" t="n">
-        <v>267.25</v>
+        <v>238.19</v>
       </c>
       <c r="M2" t="n">
-        <v>279.47</v>
+        <v>257.69</v>
       </c>
       <c r="N2" t="n">
-        <v>272.97</v>
+        <v>223.56</v>
       </c>
       <c r="O2" t="n">
-        <v>272.17</v>
+        <v>255.8</v>
       </c>
       <c r="P2" t="n">
-        <v>277.59</v>
+        <v>262.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>272.94</v>
+        <v>234.54</v>
       </c>
       <c r="R2" t="n">
-        <v>259.43</v>
+        <v>238.58</v>
       </c>
       <c r="S2" t="n">
-        <v>267.32</v>
+        <v>244.86</v>
       </c>
       <c r="T2" t="n">
-        <v>237.38</v>
+        <v>251.52</v>
       </c>
       <c r="U2" t="n">
-        <v>228.44</v>
+        <v>223.56</v>
       </c>
       <c r="V2" t="n">
-        <v>261.054</v>
+        <v>244.824</v>
       </c>
       <c r="W2" t="n">
-        <v>17.23805075071456</v>
+        <v>12.00933338787181</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>518.27</v>
+        <v>503.85</v>
       </c>
       <c r="B3" t="n">
-        <v>596.24</v>
+        <v>539.64</v>
       </c>
       <c r="C3" t="n">
-        <v>538.34</v>
+        <v>578.86</v>
       </c>
       <c r="D3" t="n">
-        <v>586.1799999999999</v>
+        <v>511.04</v>
       </c>
       <c r="E3" t="n">
-        <v>534.36</v>
+        <v>530.28</v>
       </c>
       <c r="F3" t="n">
-        <v>545.29</v>
+        <v>544.66</v>
       </c>
       <c r="G3" t="n">
-        <v>552.4400000000001</v>
+        <v>533.4400000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>521.09</v>
+        <v>503.39</v>
       </c>
       <c r="I3" t="n">
-        <v>492.96</v>
+        <v>499.8</v>
       </c>
       <c r="J3" t="n">
-        <v>505.8</v>
+        <v>507.5</v>
       </c>
       <c r="K3" t="n">
-        <v>603.67</v>
+        <v>523.49</v>
       </c>
       <c r="L3" t="n">
-        <v>536.61</v>
+        <v>508.82</v>
       </c>
       <c r="M3" t="n">
-        <v>524.9400000000001</v>
+        <v>519.22</v>
       </c>
       <c r="N3" t="n">
-        <v>513.4400000000001</v>
+        <v>501.54</v>
       </c>
       <c r="O3" t="n">
-        <v>524.5700000000001</v>
+        <v>504.96</v>
       </c>
       <c r="P3" t="n">
-        <v>574.55</v>
+        <v>499.37</v>
       </c>
       <c r="Q3" t="n">
-        <v>550.8200000000001</v>
+        <v>520.74</v>
       </c>
       <c r="R3" t="n">
-        <v>613.01</v>
+        <v>546.02</v>
       </c>
       <c r="S3" t="n">
-        <v>618.54</v>
+        <v>532.24</v>
       </c>
       <c r="T3" t="n">
-        <v>545.6900000000001</v>
+        <v>508.08</v>
       </c>
       <c r="U3" t="n">
-        <v>492.96</v>
+        <v>499.37</v>
       </c>
       <c r="V3" t="n">
-        <v>549.8405</v>
+        <v>520.847</v>
       </c>
       <c r="W3" t="n">
-        <v>36.89682092638447</v>
+        <v>20.53423049703258</v>
       </c>
     </row>
   </sheetData>
